--- a/output/StructureDefinition-SolicitudTICTF.xlsx
+++ b/output/StructureDefinition-SolicitudTICTF.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T10:56:01-03:00</t>
+    <t>2025-06-21T18:29:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,7 @@
     <t>SolicitudTICTF.paciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://racsel.org/TIC-TSTF/StructureDefinition/TICTFPatient)
 </t>
   </si>
   <si>
@@ -924,7 +924,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.1875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-SolicitudTICTF.xlsx
+++ b/output/StructureDefinition-SolicitudTICTF.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="188">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T16:41:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Modelo Lógico para la solicitud de un Tele Interconsulta Transfrrnteriza Asincrónica</t>
+    <t>Modelo Lógico para la solicitud de un Tele Interconsulta Transfronteriza Asincrónica</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que solicitan la TICTF</t>
+    <t>Profesional que solicita la TICTF</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitante.institucionSolicitante</t>
@@ -501,7 +501,7 @@
     <t>SolicitudTICTF.entidadSolicitada</t>
   </si>
   <si>
-    <t>Entidad Solicitsada</t>
+    <t>Especialidad y destinatario de la solicitud TICTF</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.id</t>
@@ -525,7 +525,7 @@
     <t>SolicitudTICTF.entidadSolicitada.especialidadSolicitada</t>
   </si>
   <si>
-    <t>Especialidades solicitadas</t>
+    <t>Especialidad solicitada</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.profesionalSolicitado</t>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.institucionSolicitada</t>
+  </si>
+  <si>
+    <t>Institución solicitada opcional</t>
   </si>
   <si>
     <t>SolicitudTICTF.razonSolicitud</t>
@@ -914,17 +917,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.4296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.2265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.70703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -933,21 +936,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="50.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="36.140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="45.2265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4222,10 +4225,10 @@
         <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4293,10 +4296,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4319,13 +4322,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4376,7 +4379,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -4393,10 +4396,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4493,10 +4496,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4595,14 +4598,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -4624,16 +4627,16 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -4682,7 +4685,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -4699,10 +4702,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4725,13 +4728,13 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4782,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4825,13 +4828,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4882,7 +4885,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -4899,10 +4902,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4925,13 +4928,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4982,7 +4985,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>

--- a/output/StructureDefinition-SolicitudTICTF.xlsx
+++ b/output/StructureDefinition-SolicitudTICTF.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="188">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-21T18:29:32-03:00</t>
+    <t>2025-08-25T12:04:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Modelo Lógico para la solicitud de un Tele Interconsulta Transfrrnteriza Asincrónica</t>
+    <t>Modelo Lógico para la solicitud de un Tele Interconsulta Transfronteriza Asincrónica</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -475,7 +475,7 @@
 </t>
   </si>
   <si>
-    <t>Profesional que solicitan la TICTF</t>
+    <t>Profesional que solicita la TICTF</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitante.institucionSolicitante</t>
@@ -501,7 +501,7 @@
     <t>SolicitudTICTF.entidadSolicitada</t>
   </si>
   <si>
-    <t>Entidad Solicitsada</t>
+    <t>Especialidad y destinatario de la solicitud TICTF</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.id</t>
@@ -525,7 +525,7 @@
     <t>SolicitudTICTF.entidadSolicitada.especialidadSolicitada</t>
   </si>
   <si>
-    <t>Especialidades solicitadas</t>
+    <t>Especialidad solicitada</t>
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.profesionalSolicitado</t>
@@ -535,6 +535,9 @@
   </si>
   <si>
     <t>SolicitudTICTF.entidadSolicitada.institucionSolicitada</t>
+  </si>
+  <si>
+    <t>Institución solicitada opcional</t>
   </si>
   <si>
     <t>SolicitudTICTF.razonSolicitud</t>
@@ -914,17 +917,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.4296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="20.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="46.015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="19.1171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="64.9609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="58.64453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -933,21 +936,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.7421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.30078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="50.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="36.1015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="46.015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -4222,10 +4225,10 @@
         <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4293,10 +4296,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4319,13 +4322,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4376,7 +4379,7 @@
         <v>73</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -4393,10 +4396,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4493,10 +4496,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4595,14 +4598,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -4624,16 +4627,16 @@
         <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>73</v>
@@ -4682,7 +4685,7 @@
         <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
@@ -4699,10 +4702,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4725,13 +4728,13 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -4782,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -4799,10 +4802,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4825,13 +4828,13 @@
         <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -4882,7 +4885,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -4899,10 +4902,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4925,13 +4928,13 @@
         <v>73</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -4982,7 +4985,7 @@
         <v>73</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
